--- a/Resources/Mappe1.xlsx
+++ b/Resources/Mappe1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yanic Gottardi\Documents\GitHub\MCUtils\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{CB2DA04C-E0A2-41FF-86DB-40EC2DA4EED3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B28ACFAF-83DD-4AC2-9A91-F1788DB5A70F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A682593E-BD30-4FD7-8756-84A0186A1EA1}"/>
+    <workbookView xWindow="39945" yWindow="2400" windowWidth="11655" windowHeight="9150" xr2:uid="{A682593E-BD30-4FD7-8756-84A0186A1EA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="908">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Numeric ID</t>
   </si>
   <si>
-    <t>Numeric ID String</t>
-  </si>
-  <si>
     <t>Added in Version</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t>5:5</t>
   </si>
   <si>
-    <t>1.7.2</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -723,16 +717,2077 @@
   </si>
   <si>
     <t>44:4</t>
+  </si>
+  <si>
+    <t>stone_brick_slab</t>
+  </si>
+  <si>
+    <t>44:5</t>
+  </si>
+  <si>
+    <t>b1.8</t>
+  </si>
+  <si>
+    <t>nether_brick_slab</t>
+  </si>
+  <si>
+    <t>44:6</t>
+  </si>
+  <si>
+    <t>1.4.6</t>
+  </si>
+  <si>
+    <t>quartz_slab</t>
+  </si>
+  <si>
+    <t>44:7</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>tnt</t>
+  </si>
+  <si>
+    <t>bricks</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>brick_block</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>bookshelf</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>mossy_cobblestone</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>obsidian</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>torch</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>facing={facing}</t>
+  </si>
+  <si>
+    <t>wall_torch</t>
+  </si>
+  <si>
+    <t>50:1..4</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>spawner</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>mob_spawner</t>
+  </si>
+  <si>
+    <t>oak_stairs</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>redstone_wire</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>diamond_ore</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>diamond_block</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>crafting_table</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>farmland</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>furnace</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>lit=true</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>lit_furnace</t>
+  </si>
+  <si>
+    <t>a1.0.1</t>
+  </si>
+  <si>
+    <t>oak_sign</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>standing_sign</t>
+  </si>
+  <si>
+    <t>oak_door</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>wooden_door</t>
+  </si>
+  <si>
+    <t>ladder</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>cobblestone_stairs</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>stone_stairs</t>
+  </si>
+  <si>
+    <t>Pre-flattening ID</t>
+  </si>
+  <si>
+    <t>oak_wall_sign</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>wall_sign</t>
+  </si>
+  <si>
+    <t>lever</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>stone_pressure_plate</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>iron_door</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>oak_pressure_plate</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>wooden_pressure_plate</t>
+  </si>
+  <si>
+    <t>redstone_ore</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>lit_redstone_ore</t>
+  </si>
+  <si>
+    <t>redstone_torch</t>
+  </si>
+  <si>
+    <t>lit=false</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>unlit_redstone_torch</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>redstone_wall_torch</t>
+  </si>
+  <si>
+    <t>75:1..4</t>
+  </si>
+  <si>
+    <t>76:1..4</t>
+  </si>
+  <si>
+    <t>stone_button</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>snow_layer</t>
+  </si>
+  <si>
+    <t>a1.0.4</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>snow_block</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>cactus</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>a1.0.6</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>a1.0.11</t>
+  </si>
+  <si>
+    <t>sugar_cane</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>reeds</t>
+  </si>
+  <si>
+    <t>jukebox</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>a1.0.14</t>
+  </si>
+  <si>
+    <t>oak_fence</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>a1.0.17</t>
+  </si>
+  <si>
+    <t>pumpkin</t>
+  </si>
+  <si>
+    <t>carved_pumpkin</t>
+  </si>
+  <si>
+    <t>facing={facing},lit=false</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>a1.2.0</t>
+  </si>
+  <si>
+    <t>netherrack</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>soul_sand</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>glowstone</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>nether_portal</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>portal</t>
+  </si>
+  <si>
+    <t>white_wool</t>
+  </si>
+  <si>
+    <t>jack_o_lantern</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>lit_pumpkin</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>repeater</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>unpowered_repeater</t>
+  </si>
+  <si>
+    <t>powered=true</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>powered_repeater</t>
+  </si>
+  <si>
+    <t>*_stained_glass</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>stained_glass</t>
+  </si>
+  <si>
+    <t>oak_trapdoor</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>trapdoor</t>
+  </si>
+  <si>
+    <t>infested_stone</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>monster_egg</t>
+  </si>
+  <si>
+    <t>infested_cobblestone</t>
+  </si>
+  <si>
+    <t>97:1</t>
+  </si>
+  <si>
+    <t>infested_stone_bricks</t>
+  </si>
+  <si>
+    <t>97:2</t>
+  </si>
+  <si>
+    <t>stone_bricks</t>
+  </si>
+  <si>
+    <t>infested_mossy_stone_bricks</t>
+  </si>
+  <si>
+    <t>97:3</t>
+  </si>
+  <si>
+    <t>mossy_stone_bricks</t>
+  </si>
+  <si>
+    <t>infested_cracked_stone_bricks</t>
+  </si>
+  <si>
+    <t>97:4</t>
+  </si>
+  <si>
+    <t>cracked_stone_bricks</t>
+  </si>
+  <si>
+    <t>infested_chiseled_stone_bricks</t>
+  </si>
+  <si>
+    <t>97:5</t>
+  </si>
+  <si>
+    <t>chiseled_stone_bricks</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>stonebrick</t>
+  </si>
+  <si>
+    <t>98:1</t>
+  </si>
+  <si>
+    <t>98:2</t>
+  </si>
+  <si>
+    <t>98:3</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>brown_mushroom_block</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>brown_wool</t>
+  </si>
+  <si>
+    <t>red_mushroom_block</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>red_wool</t>
+  </si>
+  <si>
+    <t>mushroom_stem</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>99:10</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>melon</t>
+  </si>
+  <si>
+    <t>melon_block</t>
+  </si>
+  <si>
+    <t>iron_bars</t>
+  </si>
+  <si>
+    <t>glass_pane</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>pumpkin_stem</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>melon_stem</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>vine</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>oak_fence_gate</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>fence_gate</t>
+  </si>
+  <si>
+    <t>brick_stairs</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>stone_brick_stairs</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>mycelium</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>lily_pad</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>waterlily</t>
+  </si>
+  <si>
+    <t>nether_bricks</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>nether_brick</t>
+  </si>
+  <si>
+    <t>nether_brick_stairs</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>nether_brick_fence</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>nether_wart</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>enchanting_table</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>brewing_stand</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>cauldron</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>end_portal</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>end_portal_frame</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>smooth_stone</t>
+  </si>
+  <si>
+    <t>end_stone</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>dragon_egg</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>redstone_lamp</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>lit_redstone_lamp</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>oak_slab</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>double_wooden_slab</t>
+  </si>
+  <si>
+    <t>spruce_slab</t>
+  </si>
+  <si>
+    <t>125:1</t>
+  </si>
+  <si>
+    <t>birch_slab</t>
+  </si>
+  <si>
+    <t>125:2</t>
+  </si>
+  <si>
+    <t>jungle_slab</t>
+  </si>
+  <si>
+    <t>125:3</t>
+  </si>
+  <si>
+    <t>acacia_slab</t>
+  </si>
+  <si>
+    <t>125:4</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>dark_oak_slab</t>
+  </si>
+  <si>
+    <t>125:5</t>
+  </si>
+  <si>
+    <t>spruce_slab[double=true]</t>
+  </si>
+  <si>
+    <t>oak_slab[double=true]</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>126:1</t>
+  </si>
+  <si>
+    <t>126:2</t>
+  </si>
+  <si>
+    <t>126:3</t>
+  </si>
+  <si>
+    <t>126:4</t>
+  </si>
+  <si>
+    <t>126:5</t>
+  </si>
+  <si>
+    <t>wooden_slab</t>
+  </si>
+  <si>
+    <t>43:2</t>
+  </si>
+  <si>
+    <t>cocoa</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>sandstone_stairs</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>emerald_ore</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>ender_chest</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>tripwire_hook</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>tripwire</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>emerald_block</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>spruce_stairs</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>birch_stairs</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>jungle_stairs</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>command_block</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>beacon</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>cobblestone_wall</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>mossy_cobblestone_wall</t>
+  </si>
+  <si>
+    <t>139:1</t>
+  </si>
+  <si>
+    <t>flower_pot</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>#potted plants</t>
+  </si>
+  <si>
+    <t>carrots</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>oak_button</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>wooden_button</t>
+  </si>
+  <si>
+    <t>player_head</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>skull</t>
+  </si>
+  <si>
+    <t>player_wall_head</t>
+  </si>
+  <si>
+    <t>#etc</t>
+  </si>
+  <si>
+    <t>anvil</t>
+  </si>
+  <si>
+    <t>chipped_anvil</t>
+  </si>
+  <si>
+    <t>damaged_anvil</t>
+  </si>
+  <si>
+    <t>145:4..7</t>
+  </si>
+  <si>
+    <t>145:0..3</t>
+  </si>
+  <si>
+    <t>145:8..11</t>
+  </si>
+  <si>
+    <t>trapped_chest</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>light_weighted_pressure_plate</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>heavy_weighted_pressure_plate</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>comparator</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>unpowered_comparator</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>powered_comparator</t>
+  </si>
+  <si>
+    <t>daylight_detector</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>redstone_block</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>nether_quartz_ore</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>quartz_ore</t>
+  </si>
+  <si>
+    <t>hopper</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>nether_quartz_block</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>quartz_block</t>
+  </si>
+  <si>
+    <t>chiseled_nether_quartz_block</t>
+  </si>
+  <si>
+    <t>155:1</t>
+  </si>
+  <si>
+    <t>quartz_pillar</t>
+  </si>
+  <si>
+    <t>155:2</t>
+  </si>
+  <si>
+    <t>nether_quartz_stairs</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>nether_quartz_pillar</t>
+  </si>
+  <si>
+    <t>quartz_stairs</t>
+  </si>
+  <si>
+    <t>activator_rail</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>dropper</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>*_terracotta</t>
+  </si>
+  <si>
+    <t>stained_hardened_clay</t>
+  </si>
+  <si>
+    <t>159:*</t>
+  </si>
+  <si>
+    <t>smooth_sandstone</t>
+  </si>
+  <si>
+    <t>smooth_quartz</t>
+  </si>
+  <si>
+    <t>43: ???</t>
+  </si>
+  <si>
+    <t>*_stained_glass_pane</t>
+  </si>
+  <si>
+    <t>160:*</t>
+  </si>
+  <si>
+    <t>stained_glass_pane</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>acacia_leaves</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>leaves2</t>
+  </si>
+  <si>
+    <t>dark_oak_leaves</t>
+  </si>
+  <si>
+    <t>161:1</t>
+  </si>
+  <si>
+    <t>acacia_log</t>
+  </si>
+  <si>
+    <t>acacia_wood</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>162:4</t>
+  </si>
+  <si>
+    <t>162:8</t>
+  </si>
+  <si>
+    <t>162:12</t>
+  </si>
+  <si>
+    <t>log2</t>
+  </si>
+  <si>
+    <t>dark_oak_log</t>
+  </si>
+  <si>
+    <t>dark_oak_wood</t>
+  </si>
+  <si>
+    <t>162:13</t>
+  </si>
+  <si>
+    <t>162:1</t>
+  </si>
+  <si>
+    <t>162:5</t>
+  </si>
+  <si>
+    <t>162:9</t>
+  </si>
+  <si>
+    <t>acacia_stairs</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>dark_oak_stairs</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>slime_block</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>slime</t>
+  </si>
+  <si>
+    <t>barrier</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>iron_trapdoor</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>prismarine</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>dark_prismarine</t>
+  </si>
+  <si>
+    <t>168:1</t>
+  </si>
+  <si>
+    <t>prismarine_bricks</t>
+  </si>
+  <si>
+    <t>168:2</t>
+  </si>
+  <si>
+    <t>sea_lantern</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>hay_block</t>
+  </si>
+  <si>
+    <t>yellow_wool</t>
+  </si>
+  <si>
+    <t>*_carpet</t>
+  </si>
+  <si>
+    <t>171:*</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>terracotta</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>hardened_clay</t>
+  </si>
+  <si>
+    <t>coal_block</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>packed_ice</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>double_plant</t>
+  </si>
+  <si>
+    <t>lilac</t>
+  </si>
+  <si>
+    <t>175:1</t>
+  </si>
+  <si>
+    <t>tall_grass</t>
+  </si>
+  <si>
+    <t>175:2</t>
+  </si>
+  <si>
+    <t>large_fern</t>
+  </si>
+  <si>
+    <t>175:3</t>
+  </si>
+  <si>
+    <t>rose_bush</t>
+  </si>
+  <si>
+    <t>175:4</t>
+  </si>
+  <si>
+    <t>peony</t>
+  </si>
+  <si>
+    <t>175:5</t>
+  </si>
+  <si>
+    <t>*_banner</t>
+  </si>
+  <si>
+    <t>standing_banner</t>
+  </si>
+  <si>
+    <t>176:*</t>
+  </si>
+  <si>
+    <t>*_wall_banner</t>
+  </si>
+  <si>
+    <t>177:*</t>
+  </si>
+  <si>
+    <t>wall_banner</t>
+  </si>
+  <si>
+    <t>inverted=true</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>daylight_detector_inverted</t>
+  </si>
+  <si>
+    <t>red_sandstone</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>chiseled_red_sandstone</t>
+  </si>
+  <si>
+    <t>179:1</t>
+  </si>
+  <si>
+    <t>cut_red_sandstone</t>
+  </si>
+  <si>
+    <t>179:2</t>
+  </si>
+  <si>
+    <t>red_sandstone_stairs</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>red_sandstone_slab</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>double_stone_slab2</t>
+  </si>
+  <si>
+    <t>sandstone_slab[double=true]</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>stone_slab2</t>
+  </si>
+  <si>
+    <t>spruce_fence_gate</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>birch_fence_gate</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>jungle_fence_gate</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>dark_oak_fence_gate</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>acacia_fence_gate</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>spruce_fence</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>birch_fence</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>jungle_fence</t>
+  </si>
+  <si>
+    <t>dark_oak_fence</t>
+  </si>
+  <si>
+    <t>acacia_fence</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>spruce_door</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>birch_door</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>jungle_door</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>acacia_door</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>dark_oak_door</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>end_rod</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>chorus_plant</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>chorus_flower</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>purpur_block</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>purpur_pillar</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>purpur_stairs</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>purpur_double_slab</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>stone_brick_slab[double=true]</t>
+  </si>
+  <si>
+    <t>purpur_slab</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>end_stone_bricks</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>end_bricks</t>
+  </si>
+  <si>
+    <t>beetroots</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>grass_path</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>end_gateway</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>repeating_command_block</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>chain_command_block</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>frosted_ice</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>magma</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>magma_block</t>
+  </si>
+  <si>
+    <t>nether_wart_block</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>bone_block</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>structure_void</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>observer</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>*_shulker_box</t>
+  </si>
+  <si>
+    <t>219+</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>*_glazed_terracotta</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>235+</t>
+  </si>
+  <si>
+    <t>251:*</t>
+  </si>
+  <si>
+    <t>*_concrete</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>*_concrete_powder</t>
+  </si>
+  <si>
+    <t>252:*</t>
+  </si>
+  <si>
+    <t>concrete_powder</t>
+  </si>
+  <si>
+    <t>structure_block</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>spruce_button</t>
+  </si>
+  <si>
+    <t>birch_button</t>
+  </si>
+  <si>
+    <t>jungle_button</t>
+  </si>
+  <si>
+    <t>acacia_button</t>
+  </si>
+  <si>
+    <t>dark_oak_button</t>
+  </si>
+  <si>
+    <t>spruce_pressure_plate</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>birch_pressure_plate</t>
+  </si>
+  <si>
+    <t>jungle_pressure_plate</t>
+  </si>
+  <si>
+    <t>acacia_pressure_plate</t>
+  </si>
+  <si>
+    <t>dark_oak_pressure_plate</t>
+  </si>
+  <si>
+    <t>spruce_trapdoor</t>
+  </si>
+  <si>
+    <t>birch_trapdoor</t>
+  </si>
+  <si>
+    <t>jungle_trapdoor</t>
+  </si>
+  <si>
+    <t>acacia_trapdoor</t>
+  </si>
+  <si>
+    <t>dark_oak_trapdoor</t>
+  </si>
+  <si>
+    <t>stripped_oak_log</t>
+  </si>
+  <si>
+    <t>stripped_oak_wood</t>
+  </si>
+  <si>
+    <t>stripped_spruce_log</t>
+  </si>
+  <si>
+    <t>stripped_birch_log</t>
+  </si>
+  <si>
+    <t>stripped_birch_wood</t>
+  </si>
+  <si>
+    <t>stripped_jungle_log</t>
+  </si>
+  <si>
+    <t>stripped_jungle_wood</t>
+  </si>
+  <si>
+    <t>stripped_acacia_log</t>
+  </si>
+  <si>
+    <t>stripped_acacia_wood</t>
+  </si>
+  <si>
+    <t>stripped_dark_oak_log</t>
+  </si>
+  <si>
+    <t>stripped_dark_oak_wood</t>
+  </si>
+  <si>
+    <t>bubble_column</t>
+  </si>
+  <si>
+    <t>kelp</t>
+  </si>
+  <si>
+    <t>seagrass</t>
+  </si>
+  <si>
+    <t>tall_seagrass</t>
+  </si>
+  <si>
+    <t>dried_kelp_block</t>
+  </si>
+  <si>
+    <t>prismarine_stairs</t>
+  </si>
+  <si>
+    <t>prismarine_slab</t>
+  </si>
+  <si>
+    <t>turtle_egg</t>
+  </si>
+  <si>
+    <t>tube_coral_block</t>
+  </si>
+  <si>
+    <t>brain_coral_block</t>
+  </si>
+  <si>
+    <t>bubble_coral_block</t>
+  </si>
+  <si>
+    <t>fire_coral_block</t>
+  </si>
+  <si>
+    <t>horn_coral_block</t>
+  </si>
+  <si>
+    <t>dead_tube_coral_block</t>
+  </si>
+  <si>
+    <t>dead_brain_coral_block</t>
+  </si>
+  <si>
+    <t>dead_bubble_coral_block</t>
+  </si>
+  <si>
+    <t>dead_fire_coral_block</t>
+  </si>
+  <si>
+    <t>blue_wool</t>
+  </si>
+  <si>
+    <t>pink_wool</t>
+  </si>
+  <si>
+    <t>magenta_wool</t>
+  </si>
+  <si>
+    <t>tube_coral</t>
+  </si>
+  <si>
+    <t>brain_coral</t>
+  </si>
+  <si>
+    <t>bubble_coral</t>
+  </si>
+  <si>
+    <t>fire_coral</t>
+  </si>
+  <si>
+    <t>horn_coral</t>
+  </si>
+  <si>
+    <t>dead_tube_coral</t>
+  </si>
+  <si>
+    <t>dead_brain_coral</t>
+  </si>
+  <si>
+    <t>dead_bubble_coral</t>
+  </si>
+  <si>
+    <t>dead_fire_coral</t>
+  </si>
+  <si>
+    <t>dead_horn_coral</t>
+  </si>
+  <si>
+    <t>tube_coral_fan</t>
+  </si>
+  <si>
+    <t>brain_coral_fan</t>
+  </si>
+  <si>
+    <t>bubble_coral_fan</t>
+  </si>
+  <si>
+    <t>fire_coral_fan</t>
+  </si>
+  <si>
+    <t>horn_coral_fan</t>
+  </si>
+  <si>
+    <t>dead_tube_coral_fan</t>
+  </si>
+  <si>
+    <t>dead_brain_coral_fan</t>
+  </si>
+  <si>
+    <t>dead_bubble_coral_fan</t>
+  </si>
+  <si>
+    <t>dead_fire_coral_fan</t>
+  </si>
+  <si>
+    <t>dead_horn_coral_fan</t>
+  </si>
+  <si>
+    <t>tube_coral_wall_fan</t>
+  </si>
+  <si>
+    <t>brain_coral_wall_fan</t>
+  </si>
+  <si>
+    <t>bubble_coral_wall_fan</t>
+  </si>
+  <si>
+    <t>fire_coral_wall_fan</t>
+  </si>
+  <si>
+    <t>horn_coral_wall_fan</t>
+  </si>
+  <si>
+    <t>dead_tube_coral_wall_fan</t>
+  </si>
+  <si>
+    <t>dead_brain_coral_wall_fan</t>
+  </si>
+  <si>
+    <t>dead_bubble_coral_wall_fan</t>
+  </si>
+  <si>
+    <t>dead_fire_coral_wall_fan</t>
+  </si>
+  <si>
+    <t>dead_horn_coral_wall_fan</t>
+  </si>
+  <si>
+    <t>sea_pickle</t>
+  </si>
+  <si>
+    <t>blue_ice</t>
+  </si>
+  <si>
+    <t>conduit</t>
+  </si>
+  <si>
+    <t>bamboo</t>
+  </si>
+  <si>
+    <t>bamboo_sapling</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>cornflower</t>
+  </si>
+  <si>
+    <t>alium</t>
+  </si>
+  <si>
+    <t>wither_rose</t>
+  </si>
+  <si>
+    <t>lily_of_the_valley</t>
+  </si>
+  <si>
+    <t>loom</t>
+  </si>
+  <si>
+    <t>spruce_sign</t>
+  </si>
+  <si>
+    <t>spruce_wall_sign</t>
+  </si>
+  <si>
+    <t>birch_sign</t>
+  </si>
+  <si>
+    <t>birch_wall_sign</t>
+  </si>
+  <si>
+    <t>jungle_sign</t>
+  </si>
+  <si>
+    <t>jungle_wall_sign</t>
+  </si>
+  <si>
+    <t>acacia_sign</t>
+  </si>
+  <si>
+    <t>acacia_wall_sign</t>
+  </si>
+  <si>
+    <t>dark_oak_sign</t>
+  </si>
+  <si>
+    <t>dark_oak_wall_sign</t>
+  </si>
+  <si>
+    <t>andesite_slab</t>
+  </si>
+  <si>
+    <t>polished_andesite_slab</t>
+  </si>
+  <si>
+    <t>diorite_slab</t>
+  </si>
+  <si>
+    <t>polished_diorite_slab</t>
+  </si>
+  <si>
+    <t>granite_slab</t>
+  </si>
+  <si>
+    <t>polished_granite_slab</t>
+  </si>
+  <si>
+    <t>mossy_stone_brick_slab</t>
+  </si>
+  <si>
+    <t>mossy_cobblestone_slab</t>
+  </si>
+  <si>
+    <t>smooth_sandstone_slab</t>
+  </si>
+  <si>
+    <t>smooth_red_sandstone_slab</t>
+  </si>
+  <si>
+    <t>smooth_quartz_slab</t>
+  </si>
+  <si>
+    <t>red_nether_brick_slab</t>
+  </si>
+  <si>
+    <t>end_stone_brick_slab</t>
+  </si>
+  <si>
+    <t>andesite_stairs</t>
+  </si>
+  <si>
+    <t>polished_andesite_stairs</t>
+  </si>
+  <si>
+    <t>diorite_stairs</t>
+  </si>
+  <si>
+    <t>polished_diorite_stairs</t>
+  </si>
+  <si>
+    <t>granite_stairs</t>
+  </si>
+  <si>
+    <t>polished_granite_stairs</t>
+  </si>
+  <si>
+    <t>mossy_stone_brick_stairs</t>
+  </si>
+  <si>
+    <t>mossy_cobblestone_stairs</t>
+  </si>
+  <si>
+    <t>smooth_sandstone_stairs</t>
+  </si>
+  <si>
+    <t>smooth_red_sandstone_stairs</t>
+  </si>
+  <si>
+    <t>smooth_quartz_stairs</t>
+  </si>
+  <si>
+    <t>red_nether_brick_stairs</t>
+  </si>
+  <si>
+    <t>end_stone_brick_stairs</t>
+  </si>
+  <si>
+    <t>brick_wall</t>
+  </si>
+  <si>
+    <t>andesite_wall</t>
+  </si>
+  <si>
+    <t>diorite_wall</t>
+  </si>
+  <si>
+    <t>granite_wall</t>
+  </si>
+  <si>
+    <t>prismarine_wall</t>
+  </si>
+  <si>
+    <t>stone_brick_wall</t>
+  </si>
+  <si>
+    <t>mossy_stone_brick_wall</t>
+  </si>
+  <si>
+    <t>sandstone_wall</t>
+  </si>
+  <si>
+    <t>red_sandstone_wall</t>
+  </si>
+  <si>
+    <t>nether_brick_wall</t>
+  </si>
+  <si>
+    <t>red_nether_brick_wall</t>
+  </si>
+  <si>
+    <t>end_stone_brick_wall</t>
+  </si>
+  <si>
+    <t>red_nether_bricks</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>bell</t>
+  </si>
+  <si>
+    <t>blast_furnace</t>
+  </si>
+  <si>
+    <t>smoker</t>
+  </si>
+  <si>
+    <t>cartography_table</t>
+  </si>
+  <si>
+    <t>fletching_table</t>
+  </si>
+  <si>
+    <t>smithing_table</t>
+  </si>
+  <si>
+    <t>stonecutter</t>
+  </si>
+  <si>
+    <t>grindstone</t>
+  </si>
+  <si>
+    <t>lectern</t>
+  </si>
+  <si>
+    <t>scaffolding</t>
+  </si>
+  <si>
+    <t>lantern</t>
+  </si>
+  <si>
+    <t>jigsaw_block</t>
+  </si>
+  <si>
+    <t>sweet_berry_bush</t>
+  </si>
+  <si>
+    <t>campfire</t>
+  </si>
+  <si>
+    <t>composter</t>
+  </si>
+  <si>
+    <t>cut_sandstone_slab</t>
+  </si>
+  <si>
+    <t>cut_red_sandstone_slab</t>
+  </si>
+  <si>
+    <t>bee_nest</t>
+  </si>
+  <si>
+    <t>bee_hive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1079,20 +3134,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EABF65A-83D7-48CD-9DF1-1517780EE19B}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D485" sqref="D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,1514 +3163,6784 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
+        <v>595</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>75</v>
+        <v>595</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>75</v>
+        <v>11</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>75</v>
+        <v>11</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="E69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>75</v>
+        <v>183</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1.7</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>75</v>
+        <v>183</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1.7</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>75</v>
+        <v>183</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1.7</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>75</v>
+        <v>183</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1.7</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>75</v>
+        <v>183</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1.7</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>75</v>
+        <v>183</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1.7</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>75</v>
+        <v>183</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1.7</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>75</v>
+        <v>183</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1.7</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>150</v>
+      <c r="D101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E254" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E255" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E256" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E257" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E258" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E259" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E261" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E262" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{332C4AB4-EB33-4BC2-8CD7-5EB1BF1E3ECA}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/Resources/Mappe1.xlsx
+++ b/Resources/Mappe1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yanic Gottardi\Documents\GitHub\MCUtils\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B28ACFAF-83DD-4AC2-9A91-F1788DB5A70F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8C1CDAD-0721-4B6A-B4B4-07482295542F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39945" yWindow="2400" windowWidth="11655" windowHeight="9150" xr2:uid="{A682593E-BD30-4FD7-8756-84A0186A1EA1}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A682593E-BD30-4FD7-8756-84A0186A1EA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="985">
   <si>
     <t>ID</t>
   </si>
@@ -2772,6 +2772,237 @@
   </si>
   <si>
     <t>bee_hive</t>
+  </si>
+  <si>
+    <t>honey_block</t>
+  </si>
+  <si>
+    <t>honeycomb_block</t>
+  </si>
+  <si>
+    <t>orange_terracotta</t>
+  </si>
+  <si>
+    <t>ancient_debris</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>basalt</t>
+  </si>
+  <si>
+    <t>netherite_block</t>
+  </si>
+  <si>
+    <t>crimson_stem</t>
+  </si>
+  <si>
+    <t>warped_stem</t>
+  </si>
+  <si>
+    <t>crimson_planks</t>
+  </si>
+  <si>
+    <t>warped_planks</t>
+  </si>
+  <si>
+    <t>crimson_sign</t>
+  </si>
+  <si>
+    <t>warped_sign</t>
+  </si>
+  <si>
+    <t>crimson_wall_sign</t>
+  </si>
+  <si>
+    <t>warped_wall_sign</t>
+  </si>
+  <si>
+    <t>crimson_slab</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>warped_slab</t>
+  </si>
+  <si>
+    <t>crimson_fence</t>
+  </si>
+  <si>
+    <t>warped_fence</t>
+  </si>
+  <si>
+    <t>crimson_fence_gate</t>
+  </si>
+  <si>
+    <t>warped_fence_gate</t>
+  </si>
+  <si>
+    <t>crimson_pressure_plate</t>
+  </si>
+  <si>
+    <t>warped_pressure_plate</t>
+  </si>
+  <si>
+    <t>crimson_button</t>
+  </si>
+  <si>
+    <t>warped_button</t>
+  </si>
+  <si>
+    <t>crimson_door</t>
+  </si>
+  <si>
+    <t>warped_door</t>
+  </si>
+  <si>
+    <t>crimson_trapdoor</t>
+  </si>
+  <si>
+    <t>warped_trapdoor</t>
+  </si>
+  <si>
+    <t>crimson_fungus</t>
+  </si>
+  <si>
+    <t>warped_mushroom</t>
+  </si>
+  <si>
+    <t>crimson_nylium</t>
+  </si>
+  <si>
+    <t>warped_nylium</t>
+  </si>
+  <si>
+    <t>crimson_roots</t>
+  </si>
+  <si>
+    <t>warped_roots</t>
+  </si>
+  <si>
+    <t>nether_sprouts</t>
+  </si>
+  <si>
+    <t>shroomlight</t>
+  </si>
+  <si>
+    <t>soul_fire</t>
+  </si>
+  <si>
+    <t>soul_lantern</t>
+  </si>
+  <si>
+    <t>soul_torch</t>
+  </si>
+  <si>
+    <t>soul_wall_torch</t>
+  </si>
+  <si>
+    <t>soul_soil</t>
+  </si>
+  <si>
+    <t>warped_wart_block</t>
+  </si>
+  <si>
+    <t>weeping_vines</t>
+  </si>
+  <si>
+    <t>crying_obsidian</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>crimson_hyphae</t>
+  </si>
+  <si>
+    <t>warped_hyphae</t>
+  </si>
+  <si>
+    <t>nether_gold_ore</t>
+  </si>
+  <si>
+    <t>twisting_vines</t>
+  </si>
+  <si>
+    <t>polished_basalt</t>
+  </si>
+  <si>
+    <t>respawn_anchor</t>
+  </si>
+  <si>
+    <t>lodestone</t>
+  </si>
+  <si>
+    <t>blackstone</t>
+  </si>
+  <si>
+    <t>blackstone_slab</t>
+  </si>
+  <si>
+    <t>blackstone_stairs</t>
+  </si>
+  <si>
+    <t>blackstone_wall</t>
+  </si>
+  <si>
+    <t>polished_blackstone_bricks</t>
+  </si>
+  <si>
+    <t>polished_blackstone</t>
+  </si>
+  <si>
+    <t>polished_blackstone_slab</t>
+  </si>
+  <si>
+    <t>polished_blackstone_wall</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>polished_blackstone_stairs</t>
+  </si>
+  <si>
+    <t>polished_blackstone_brick_slab</t>
+  </si>
+  <si>
+    <t>polished_blackstone_brick_wall</t>
+  </si>
+  <si>
+    <t>polished_blackstone_brick_stairs</t>
+  </si>
+  <si>
+    <t>polished_blackstone_button</t>
+  </si>
+  <si>
+    <t>polished_blackstone_pressure_plate</t>
+  </si>
+  <si>
+    <t>chiseled_nether_bricks</t>
+  </si>
+  <si>
+    <t>chiseled_polished_blackstone</t>
+  </si>
+  <si>
+    <t>cracked_nether_bricks</t>
+  </si>
+  <si>
+    <t>cracked_polished_blackstone_bricks</t>
+  </si>
+  <si>
+    <t>gilded_blackstone</t>
+  </si>
+  <si>
+    <t>quartz_bricks</t>
+  </si>
+  <si>
+    <t>soul_campfire</t>
+  </si>
+  <si>
+    <t>chains</t>
   </si>
 </sst>
 </file>
@@ -3134,11 +3365,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EABF65A-83D7-48CD-9DF1-1517780EE19B}">
-  <dimension ref="A1:F483"/>
+  <dimension ref="A1:F608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D485" sqref="D485"/>
+      <pane ySplit="1" topLeftCell="A539" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F557" sqref="F557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9936,6 +10167,1123 @@
       </c>
       <c r="F483" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E557" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E558" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E559" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E560" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E561" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E562" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E563" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E564" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E565" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E566" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E567" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E568" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E569" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E570" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E571" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E572" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E573" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E574" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E575" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E576" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E577" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E578" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E579" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E580" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E581" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E582" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E583" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E584" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E585" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E586" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E587" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E588" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E589" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E590" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E591" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E592" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E593" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E594" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E595" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E596" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E597" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E598" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E599" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E600" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E601" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E602" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E603" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E604" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E605" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E606" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E607" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E608" s="1" t="s">
+        <v>970</v>
       </c>
     </row>
   </sheetData>
